--- a/custom-pivottable.xlsx
+++ b/custom-pivottable.xlsx
@@ -15,20 +15,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t>City</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Balance</t>
+  </si>
+  <si>
     <t>Percents</t>
   </si>
   <si>
-    <t>Balance</t>
+    <t>Rome</t>
   </si>
   <si>
     <t>Jane</t>
   </si>
   <si>
+    <t>Paris</t>
+  </si>
+  <si>
     <t>Tarzan</t>
   </si>
   <si>
@@ -36,6 +45,9 @@
   </si>
   <si>
     <t>Kate</t>
+  </si>
+  <si>
+    <t>Athens</t>
   </si>
   <si>
     <t>Dmitry</t>
@@ -82,20 +94,26 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" createdVersion="3" minRefreshableVersion="3" refreshedVersion="3" refreshedBy="Apache POI" refreshedDate="1.479017011754E12" refreshOnLoad="true" r:id="rId1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" createdVersion="3" minRefreshableVersion="3" refreshedVersion="3" refreshedBy="Apache POI" refreshedDate="1.523378078765E12" refreshOnLoad="true" r:id="rId1">
   <cacheSource type="worksheet">
-    <worksheetSource sheet="Sheet0" ref="A1:C6"/>
+    <worksheetSource sheet="Sheet0" ref="A1:D6"/>
   </cacheSource>
-  <cacheFields count="3">
+  <cacheFields count="4">
+    <cacheField numFmtId="0" name="City">
+      <sharedItems>
+        <s v=" "/>
+        <s v="  "/>
+      </sharedItems>
+    </cacheField>
     <cacheField numFmtId="0" name="Name">
       <sharedItems/>
     </cacheField>
+    <cacheField numFmtId="0" name="Balance">
+      <sharedItems/>
+    </cacheField>
     <cacheField numFmtId="0" name="Percents">
       <sharedItems/>
     </cacheField>
-    <cacheField numFmtId="0" name="Balance">
-      <sharedItems/>
-    </cacheField>
   </cacheFields>
 </pivotCacheDefinition>
 </file>
@@ -106,19 +124,15 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" multipleFieldFilters="false" indent="0" createdVersion="3" minRefreshableVersion="3" updatedVersion="3" itemPrintTitles="true" useAutoFormatting="true" applyNumberFormats="false" applyWidthHeightFormats="true" applyAlignmentFormats="false" applyPatternFormats="false" applyFontFormats="false" applyBorderFormats="false" cacheId="2" name="PivotTable2" dataCaption="Values">
-  <location firstDataCol="1" firstDataRow="1" firstHeaderRow="1" ref="E3:F4"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" showAll="false">
-      <items count="6">
-        <item t="default"/>
-        <item t="default"/>
-        <item t="default"/>
-        <item t="default"/>
-        <item t="default"/>
-        <item t="default"/>
+  <location firstDataCol="1" firstDataRow="1" firstHeaderRow="1" ref="F3:G4"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="false" defaultSubtotal="false">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="false" numFmtId="9">
+    <pivotField axis="axisRow" showAll="false">
       <items count="6">
         <item t="default"/>
         <item t="default"/>
@@ -129,11 +143,24 @@
       </items>
     </pivotField>
     <pivotField dataField="true" showAll="false"/>
+    <pivotField axis="axisCol" showAll="false" numFmtId="9">
+      <items count="6">
+        <item t="default"/>
+        <item t="default"/>
+        <item t="default"/>
+        <item t="default"/>
+        <item t="default"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
     <field x="1"/>
   </rowFields>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
   <dataFields count="1">
     <dataField subtotal="sum" name="Sum" fld="2" numFmtId="4"/>
   </dataFields>
@@ -143,7 +170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -159,60 +186,78 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.25</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>107634.0</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.5</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>554234.0</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.75</v>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>10234.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.25</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="n">
         <v>22350.0</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5</v>
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>15234.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/custom-pivottable.xlsx
+++ b/custom-pivottable.xlsx
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" createdVersion="3" minRefreshableVersion="3" refreshedVersion="3" refreshedBy="Apache POI" refreshedDate="1.523378078765E12" refreshOnLoad="true" r:id="rId1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" createdVersion="3" minRefreshableVersion="3" refreshedVersion="3" refreshedBy="Apache POI" refreshedDate="1.586434134534E12" refreshOnLoad="true" r:id="rId1">
   <cacheSource type="worksheet">
     <worksheetSource sheet="Sheet0" ref="A1:D6"/>
   </cacheSource>
